--- a/inputData.xlsx
+++ b/inputData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79d2e06a4ad5c942/course/homework 2/fea program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DXX\OneDrive\course\homework 2\fea program\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="2" r:id="rId1"/>
-    <sheet name="origin" sheetId="1" r:id="rId2"/>
+    <sheet name="pu" sheetId="3" r:id="rId2"/>
+    <sheet name="pu2" sheetId="4" r:id="rId3"/>
+    <sheet name="origin" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
   <si>
     <t>analysisType: static or dynamics</t>
   </si>
@@ -486,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,10 +736,522 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f>210000</f>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="1">
+        <f>33000000</f>
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f>9.82*10^6/10^6</f>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>2000</v>
+      </c>
+      <c r="H23">
+        <v>3000</v>
+      </c>
+      <c r="I23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f>210000</f>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="1">
+        <f>33000000</f>
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f>9.82*10^6/10^6</f>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>2000</v>
+      </c>
+      <c r="H23">
+        <v>3000</v>
+      </c>
+      <c r="I23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>

--- a/inputData.xlsx
+++ b/inputData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="2" r:id="rId1"/>
-    <sheet name="pu" sheetId="3" r:id="rId2"/>
-    <sheet name="pu2" sheetId="4" r:id="rId3"/>
-    <sheet name="origin" sheetId="1" r:id="rId4"/>
+    <sheet name="case2" sheetId="6" r:id="rId2"/>
+    <sheet name="case2_2" sheetId="9" r:id="rId3"/>
+    <sheet name="case2_BeamElement3" sheetId="10" r:id="rId4"/>
+    <sheet name="case2test" sheetId="7" r:id="rId5"/>
+    <sheet name="case2test2" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
+    <sheet name="pu" sheetId="3" r:id="rId8"/>
+    <sheet name="pu2" sheetId="4" r:id="rId9"/>
+    <sheet name="origin" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="35">
   <si>
     <t>analysisType: static or dynamics</t>
   </si>
@@ -96,13 +102,49 @@
   </si>
   <si>
     <t>c:  --亓伟,陈伯靖,段海滨,刘玉涛. 有砟轨道动刚度特性研究[J]. 铁道标准设计,2016,09:32-36.</t>
+  </si>
+  <si>
+    <t>elementType: TrackElement, BeamElement,</t>
+  </si>
+  <si>
+    <t>TrackElement</t>
+  </si>
+  <si>
+    <t>nRestrainedDof: number of restrained dof</t>
+  </si>
+  <si>
+    <t>BeamElement</t>
+  </si>
+  <si>
+    <t>I: 90*90 square</t>
+  </si>
+  <si>
+    <t>density: kg/mm^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E: </t>
+  </si>
+  <si>
+    <t>simple supported beam, only vertical freedom is restrained in beam ends;</t>
+  </si>
+  <si>
+    <t>BeamElement3</t>
+  </si>
+  <si>
+    <t>A: 90*90</t>
+  </si>
+  <si>
+    <t>nNodeFreedoms: single node's freedoms number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +162,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,11 +222,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,187 +615,302 @@
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E13">
-        <f>6.76*10^10*100/E15</f>
-        <v>210133.66490519117</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>6.76*10^10*100/E19</f>
+        <v>210133.66490519117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="1">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="1">
         <f>3217*10000</f>
         <v>32170000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E17">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E21">
         <f>70/1000</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E19">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E23">
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E21">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E25">
         <f>9.82*10^6/10^6</f>
         <v>9.82</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+      <c r="H27">
+        <v>3000</v>
+      </c>
+      <c r="I27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>300</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>4000</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1000</v>
-      </c>
-      <c r="G23">
-        <v>2000</v>
-      </c>
-      <c r="H23">
-        <v>3000</v>
-      </c>
-      <c r="I23">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>300</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>4000</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E34">
-        <v>11</v>
-      </c>
-      <c r="F34">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -741,6 +920,1662 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H46" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="7"/>
+    <col min="3" max="3" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E17" s="7">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E19" s="7">
+        <f>90^4/12</f>
+        <v>5467500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7">
+        <f>E21/(90*90)</f>
+        <v>8.6419753086419767E-6</v>
+      </c>
+      <c r="E21" s="7">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E23" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E25" s="7">
+        <f>9.82*10^6/10^6</f>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4000</v>
+      </c>
+      <c r="J27" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2</v>
+      </c>
+      <c r="G31" s="7">
+        <v>3</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3</v>
+      </c>
+      <c r="G32" s="7">
+        <v>4</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>800</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>6000</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E38" s="7">
+        <v>11</v>
+      </c>
+      <c r="F38" s="7">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="7"/>
+    <col min="3" max="3" width="11.81640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E17" s="7">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E19" s="7">
+        <f>90^4/12</f>
+        <v>5467500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7">
+        <f>E21/(90*90)</f>
+        <v>8.6419753086419767E-6</v>
+      </c>
+      <c r="E21" s="7">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E23" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E25" s="7">
+        <f>9.82*10^6/10^6</f>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I27" s="7">
+        <v>4000</v>
+      </c>
+      <c r="J27" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2</v>
+      </c>
+      <c r="G31" s="7">
+        <v>3</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3</v>
+      </c>
+      <c r="G32" s="7">
+        <v>4</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>800</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>6000</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E38" s="7">
+        <v>10</v>
+      </c>
+      <c r="F38" s="7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="7"/>
+    <col min="3" max="3" width="11.81640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E19" s="7">
+        <f>90*90</f>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E21" s="7">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E23" s="7">
+        <f>90^4/12</f>
+        <v>5467500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7">
+        <f>E25/(90*90)</f>
+        <v>8.6419753086419767E-6</v>
+      </c>
+      <c r="E25" s="7">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E27" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E29" s="7">
+        <f>9.82*10^6/10^6</f>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4000</v>
+      </c>
+      <c r="J31" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E36" s="7">
+        <v>2</v>
+      </c>
+      <c r="F36" s="7">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5</v>
+      </c>
+      <c r="I36" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>800</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>6000</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E42" s="7">
+        <v>110</v>
+      </c>
+      <c r="F42" s="7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="1">
+        <f>90^4/12</f>
+        <v>5467500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <f>E21/(90*90)</f>
+        <v>8.6419753086419767E-6</v>
+      </c>
+      <c r="E21">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f>9.82*10^6/10^6</f>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+      <c r="H27">
+        <v>3000</v>
+      </c>
+      <c r="I27">
+        <v>4000</v>
+      </c>
+      <c r="J27">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>6000</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="A1:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="1">
+        <f>90^4/12</f>
+        <v>5467500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <f>E21/(90*90)</f>
+        <v>8.6419753086419767E-6</v>
+      </c>
+      <c r="E21">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f>9.82*10^6/10^6</f>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>500</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>1500</v>
+      </c>
+      <c r="I27">
+        <v>2000</v>
+      </c>
+      <c r="J27">
+        <v>2500</v>
+      </c>
+      <c r="K27">
+        <v>3000</v>
+      </c>
+      <c r="L27">
+        <v>3500</v>
+      </c>
+      <c r="M27">
+        <v>4000</v>
+      </c>
+      <c r="N27">
+        <v>4500</v>
+      </c>
+      <c r="O27">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="M31">
+        <v>9</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32" s="4">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>9</v>
+      </c>
+      <c r="M32" s="4">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>11</v>
+      </c>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>300</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>6000</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -996,11 +2831,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -1249,99 +3084,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/inputData.xlsx
+++ b/inputData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8200" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8200" tabRatio="741" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="2" r:id="rId1"/>
     <sheet name="case2" sheetId="6" r:id="rId2"/>
     <sheet name="case2_2" sheetId="9" r:id="rId3"/>
     <sheet name="case2_BeamElement3" sheetId="10" r:id="rId4"/>
-    <sheet name="case2test" sheetId="7" r:id="rId5"/>
-    <sheet name="case2test2" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
-    <sheet name="pu" sheetId="3" r:id="rId8"/>
-    <sheet name="pu2" sheetId="4" r:id="rId9"/>
-    <sheet name="origin" sheetId="1" r:id="rId10"/>
+    <sheet name="superposition" sheetId="11" r:id="rId5"/>
+    <sheet name="case2test" sheetId="7" r:id="rId6"/>
+    <sheet name="case2test2" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId8"/>
+    <sheet name="pu" sheetId="3" r:id="rId9"/>
+    <sheet name="pu2" sheetId="4" r:id="rId10"/>
+    <sheet name="origin" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
   <si>
     <t>analysisType: static or dynamics</t>
   </si>
@@ -138,13 +139,16 @@
   </si>
   <si>
     <t>nNodeFreedoms: single node's freedoms number</t>
+  </si>
+  <si>
+    <t>based on case2_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +166,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
@@ -235,6 +253,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,6 +850,261 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f>210000</f>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="1">
+        <f>33000000</f>
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f>70/1000</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f>9.82*10^6/10^6</f>
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>2000</v>
+      </c>
+      <c r="H23">
+        <v>3000</v>
+      </c>
+      <c r="I23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1538,323 +1817,323 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="7"/>
-    <col min="3" max="3" width="11.81640625" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="2" width="8.7265625" style="13"/>
+    <col min="3" max="3" width="11.81640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E5" s="7">
+      <c r="E5" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E7" s="7">
+      <c r="E7" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E9" s="7">
+      <c r="E9" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E11" s="7">
+      <c r="E11" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E15" s="7">
+      <c r="E15" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E19" s="7">
+      <c r="E19" s="13">
         <f>90*90</f>
         <v>8100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E21" s="7">
+      <c r="E21" s="13">
         <f>2*10^5</f>
         <v>200000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E23" s="7">
+      <c r="E23" s="13">
         <f>90^4/12</f>
         <v>5467500</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="13">
         <f>E25/(90*90)</f>
         <v>8.6419753086419767E-6</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="13">
         <f>70/1000</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E27" s="7">
+      <c r="E27" s="13">
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E29" s="7">
+      <c r="E29" s="13">
         <f>9.82*10^6/10^6</f>
         <v>9.82</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
         <v>1000</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="13">
         <v>2000</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="13">
         <v>3000</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="13">
         <v>4000</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="13">
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E35" s="7">
+      <c r="E35" s="13">
         <v>1</v>
       </c>
-      <c r="F35" s="7">
-        <v>2</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="13">
+        <v>2</v>
+      </c>
+      <c r="G35" s="13">
         <v>3</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="13">
         <v>4</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E36" s="7">
-        <v>2</v>
-      </c>
-      <c r="F36" s="7">
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+      <c r="F36" s="13">
         <v>3</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="13">
         <v>4</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="13">
         <v>5</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
         <v>800</v>
       </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="10">
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7">
-        <v>6000</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="E39" s="13">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
+        <v>-6000</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E41" s="7">
+      <c r="E41" s="13">
         <v>1</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E42" s="7">
+      <c r="E42" s="13">
         <v>110</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="13">
         <v>10</v>
       </c>
     </row>
@@ -1865,6 +2144,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -2168,7 +2467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
@@ -2563,7 +2862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2575,7 +2874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
@@ -2829,259 +3128,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E13">
-        <f>210000</f>
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="1">
-        <f>33000000</f>
-        <v>33000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E17">
-        <f>70/1000</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E19">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E21">
-        <f>9.82*10^6/10^6</f>
-        <v>9.82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1000</v>
-      </c>
-      <c r="G23">
-        <v>2000</v>
-      </c>
-      <c r="H23">
-        <v>3000</v>
-      </c>
-      <c r="I23">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E34">
-        <v>11</v>
-      </c>
-      <c r="F34">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>